--- a/board/YNM-3000-1/doc/LW-AirKit-A01-design.xlsx
+++ b/board/YNM-3000-1/doc/LW-AirKit-A01-design.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="14085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NodeMcu" sheetId="4" r:id="rId1"/>
     <sheet name="AirKit" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">AirKit!$B$1:$AF$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">AirKit!$B$1:$AH$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">NodeMcu!$B$1:$Q$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>ESP12-HCHO</t>
   </si>
@@ -192,7 +192,7 @@
     <t>SDA</t>
   </si>
   <si>
-    <t>LW-AirKit-A01</t>
+    <t>YNM-3000-1</t>
   </si>
   <si>
     <t>S5-GPRS/Nodemcu-WIFI</t>
@@ -204,6 +204,13 @@
     <t>air202-RDA8955 3.4V-4.2V</t>
   </si>
   <si>
+    <t>冲突</t>
+  </si>
+  <si>
+    <t>代码
+支持</t>
+  </si>
+  <si>
     <t>VBAT</t>
   </si>
   <si>
@@ -279,6 +286,15 @@
     <t>S5</t>
   </si>
   <si>
+    <t>合宙</t>
+  </si>
+  <si>
+    <t>紫色任选其一</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>GP10</t>
   </si>
   <si>
@@ -384,12 +400,30 @@
     <t>PM25</t>
   </si>
   <si>
+    <t>红色任选其一</t>
+  </si>
+  <si>
+    <t>HH-HCHO-M</t>
+  </si>
+  <si>
+    <t>3.7-9V</t>
+  </si>
+  <si>
+    <t>WZ-S</t>
+  </si>
+  <si>
+    <t>5-7V</t>
+  </si>
+  <si>
     <t>S8 0053</t>
   </si>
   <si>
     <t>CO2</t>
   </si>
   <si>
+    <t>蓝色任选其一</t>
+  </si>
+  <si>
     <t>4.5-5.25</t>
   </si>
   <si>
@@ -397,18 +431,6 @@
   </si>
   <si>
     <t>4.5-5.5</t>
-  </si>
-  <si>
-    <t>HH-HCHO-M</t>
-  </si>
-  <si>
-    <t>3.7-9V</t>
-  </si>
-  <si>
-    <t>WZ-S</t>
-  </si>
-  <si>
-    <t>5-7V</t>
   </si>
   <si>
     <t>DS-HCHO</t>
@@ -431,13 +453,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.249946592608417"/>
@@ -478,7 +500,29 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1" tint="0.249946592608417"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249946592608417"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -486,13 +530,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.15"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -512,17 +549,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.15"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -540,8 +579,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,8 +672,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,49 +688,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="3"/>
       <name val="Cambria"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -638,35 +711,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -709,42 +753,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -752,12 +760,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,43 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +801,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,19 +843,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +909,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,6 +962,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -928,21 +1002,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -965,6 +1024,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -973,30 +1041,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1005,10 +1049,10 @@
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,133 +1061,133 @@
     <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,44 +1230,59 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1246,7 +1305,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1676,13 +1735,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>13970</xdr:rowOff>
@@ -1702,7 +1761,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8696325" y="4743450"/>
+          <a:off x="9858375" y="4743450"/>
           <a:ext cx="5257800" cy="6357620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1718,13 +1777,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>127635</xdr:rowOff>
@@ -1744,7 +1803,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2419350" y="4886325"/>
+          <a:off x="3581400" y="4886325"/>
           <a:ext cx="6286500" cy="5642610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1760,13 +1819,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>378460</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>74295</xdr:rowOff>
@@ -1793,7 +1852,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314575" y="11782425"/>
+          <a:off x="3476625" y="11782425"/>
           <a:ext cx="5988685" cy="5322570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1842,39 +1901,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblPerformance" displayName="tblPerformance" ref="B4:AF19" totalsRowShown="0">
-  <tableColumns count="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblPerformance" displayName="tblPerformance" ref="B4:AH19" totalsRowShown="0">
+  <tableColumns count="33">
     <tableColumn id="1" name="模块"/>
     <tableColumn id="2" name="描述"/>
-    <tableColumn id="3" name="VBAT"/>
-    <tableColumn id="4" name="GND"/>
-    <tableColumn id="5" name="5V"/>
-    <tableColumn id="6" name="TX1"/>
-    <tableColumn id="7" name="RX1"/>
-    <tableColumn id="8" name="SPI_CS"/>
-    <tableColumn id="9" name="SPI_CLK"/>
-    <tableColumn id="10" name="SPI_DO"/>
-    <tableColumn id="11" name="SPI_DI"/>
-    <tableColumn id="12" name="VDDIO"/>
-    <tableColumn id="13" name="CTS1"/>
-    <tableColumn id="14" name="GND2"/>
-    <tableColumn id="15" name="RTS1"/>
-    <tableColumn id="16" name="SPK+"/>
-    <tableColumn id="17" name="SPK-"/>
-    <tableColumn id="18" name="DTR1"/>
-    <tableColumn id="19" name="ADC"/>
-    <tableColumn id="20" name="PWRKEY"/>
-    <tableColumn id="21" name="RESET"/>
-    <tableColumn id="22" name="H_RXD"/>
-    <tableColumn id="23" name="H_TXD"/>
-    <tableColumn id="24" name="RX2"/>
-    <tableColumn id="25" name="TX2"/>
-    <tableColumn id="26" name="SCL"/>
-    <tableColumn id="27" name="SDA"/>
-    <tableColumn id="28" name="GND3"/>
-    <tableColumn id="29" name="PW_IN"/>
-    <tableColumn id="30" name="PW_3.3V"/>
-    <tableColumn id="31" name="PW_5V2"/>
+    <tableColumn id="3" name="冲突"/>
+    <tableColumn id="4" name="代码&#10;支持"/>
+    <tableColumn id="5" name="VBAT"/>
+    <tableColumn id="6" name="GND"/>
+    <tableColumn id="7" name="5V"/>
+    <tableColumn id="8" name="TX1"/>
+    <tableColumn id="9" name="RX1"/>
+    <tableColumn id="10" name="SPI_CS"/>
+    <tableColumn id="11" name="SPI_CLK"/>
+    <tableColumn id="12" name="SPI_DO"/>
+    <tableColumn id="13" name="SPI_DI"/>
+    <tableColumn id="14" name="VDDIO"/>
+    <tableColumn id="15" name="CTS1"/>
+    <tableColumn id="16" name="GND2"/>
+    <tableColumn id="17" name="RTS1"/>
+    <tableColumn id="18" name="SPK+"/>
+    <tableColumn id="19" name="SPK-"/>
+    <tableColumn id="20" name="DTR1"/>
+    <tableColumn id="21" name="ADC"/>
+    <tableColumn id="22" name="PWRKEY"/>
+    <tableColumn id="23" name="RESET"/>
+    <tableColumn id="24" name="H_RXD"/>
+    <tableColumn id="25" name="H_TXD"/>
+    <tableColumn id="26" name="RX2"/>
+    <tableColumn id="27" name="TX2"/>
+    <tableColumn id="28" name="SCL"/>
+    <tableColumn id="29" name="SDA"/>
+    <tableColumn id="30" name="GND3"/>
+    <tableColumn id="31" name="PW_IN"/>
+    <tableColumn id="32" name="PW_3.3V"/>
+    <tableColumn id="33" name="PW_5V2"/>
   </tableColumns>
   <tableStyleInfo name="Project Performance Report" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2119,23 +2180,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.71428571428571" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.4285714285714" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.2857142857143" style="29" customWidth="1"/>
-    <col min="4" max="5" width="7.85714285714286" style="29" customWidth="1"/>
-    <col min="6" max="6" width="8.85714285714286" style="29" customWidth="1"/>
-    <col min="7" max="8" width="7.85714285714286" style="29" customWidth="1"/>
-    <col min="9" max="12" width="7.85714285714286" style="30" customWidth="1"/>
-    <col min="13" max="14" width="7.85714285714286" style="31" customWidth="1"/>
-    <col min="15" max="15" width="9.28571428571429" style="30" customWidth="1"/>
-    <col min="16" max="16" width="9.14285714285714" style="30" customWidth="1"/>
-    <col min="17" max="17" width="9.28571428571429" style="30" customWidth="1"/>
-    <col min="18" max="18" width="11.7142857142857" style="29" customWidth="1"/>
-    <col min="19" max="16384" width="9.14285714285714" style="29"/>
+    <col min="1" max="1" width="1.71428571428571" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11.4285714285714" style="34" customWidth="1"/>
+    <col min="3" max="3" width="11.2857142857143" style="34" customWidth="1"/>
+    <col min="4" max="5" width="7.85714285714286" style="34" customWidth="1"/>
+    <col min="6" max="6" width="8.85714285714286" style="34" customWidth="1"/>
+    <col min="7" max="8" width="7.85714285714286" style="34" customWidth="1"/>
+    <col min="9" max="12" width="7.85714285714286" style="35" customWidth="1"/>
+    <col min="13" max="14" width="7.85714285714286" style="36" customWidth="1"/>
+    <col min="15" max="15" width="9.28571428571429" style="35" customWidth="1"/>
+    <col min="16" max="16" width="9.14285714285714" style="35" customWidth="1"/>
+    <col min="17" max="17" width="9.28571428571429" style="35" customWidth="1"/>
+    <col min="18" max="18" width="11.7142857142857" style="34" customWidth="1"/>
+    <col min="19" max="16384" width="9.14285714285714" style="34"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="2:17">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7"/>
@@ -2150,40 +2211,40 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="3:3">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:17">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" s="27" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+    </row>
+    <row r="4" s="32" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
@@ -2233,357 +2294,357 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="28" customFormat="1" customHeight="1" spans="2:17">
-      <c r="B5" s="34" t="s">
+    <row r="5" s="33" customFormat="1" customHeight="1" spans="2:17">
+      <c r="B5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" s="28" customFormat="1" customHeight="1" spans="2:19">
-      <c r="B6" s="35"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+    <row r="6" s="33" customFormat="1" customHeight="1" spans="2:19">
+      <c r="B6" s="40"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="S6" s="36"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="S6" s="41"/>
     </row>
     <row r="7" customHeight="1" spans="2:17">
-      <c r="B7" s="35"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" customHeight="1" spans="2:17">
-      <c r="B8" s="34"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" customHeight="1" spans="2:17">
-      <c r="B9" s="34"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" customHeight="1" spans="2:17">
-      <c r="B10" s="34"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" s="28" customFormat="1" customHeight="1" spans="2:17">
-      <c r="B11" s="34" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" s="33" customFormat="1" customHeight="1" spans="2:17">
+      <c r="B11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" s="28" customFormat="1" customHeight="1" spans="2:17">
-      <c r="B12" s="34"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" s="33" customFormat="1" customHeight="1" spans="2:17">
+      <c r="B12" s="39"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" customHeight="1" spans="2:17">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" customHeight="1" spans="2:17">
-      <c r="B14" s="34"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" customHeight="1" spans="2:17">
-      <c r="B15" s="34"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" s="28" customFormat="1" customHeight="1" spans="2:17">
-      <c r="B16" s="34"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" s="33" customFormat="1" customHeight="1" spans="2:17">
+      <c r="B16" s="39"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" customHeight="1" spans="2:17">
-      <c r="B17" s="34"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" customHeight="1" spans="2:17">
-      <c r="B18" s="34"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" customHeight="1" spans="2:17">
-      <c r="B19" s="34"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="23" customHeight="1" spans="14:14">
-      <c r="N23" s="36"/>
+      <c r="N23" s="41"/>
     </row>
     <row r="24" customHeight="1" spans="14:14">
-      <c r="N24" s="36"/>
+      <c r="N24" s="41"/>
     </row>
     <row r="28" customHeight="1" spans="12:12">
-      <c r="L28" s="36"/>
+      <c r="L28" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2608,12 +2669,12 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF49"/>
+  <dimension ref="B1:AH49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2621,15 +2682,17 @@
     <col min="1" max="1" width="1.71428571428571" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.8571428571429" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.4285714285714" style="3" customWidth="1"/>
-    <col min="4" max="8" width="9.42857142857143" style="3" customWidth="1"/>
-    <col min="9" max="12" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="13" max="26" width="9.42857142857143" style="5" customWidth="1"/>
-    <col min="27" max="32" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="33" max="16376" width="9.14285714285714" style="3"/>
-    <col min="16377" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.42857142857143" style="3" customWidth="1"/>
+    <col min="6" max="10" width="9.42857142857143" style="3" customWidth="1"/>
+    <col min="11" max="14" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="15" max="28" width="9.42857142857143" style="5" customWidth="1"/>
+    <col min="29" max="34" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="35" max="16378" width="9.14285714285714" style="3"/>
+    <col min="16379" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="2:32">
+    <row r="1" ht="38.25" spans="2:34">
       <c r="B1" s="6" t="s">
         <v>54</v>
       </c>
@@ -2640,11 +2703,11 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -2659,135 +2722,139 @@
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AD1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AE1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AF1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="3"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="3"/>
     </row>
     <row r="2" ht="16.5" spans="3:3">
       <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:32">
+    <row r="3" ht="14.25" spans="2:34">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="H3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="I3" s="9">
         <v>4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="J3" s="9">
         <v>5</v>
       </c>
-      <c r="I3" s="9">
+      <c r="K3" s="9">
         <v>6</v>
       </c>
-      <c r="J3" s="9">
+      <c r="L3" s="9">
         <v>7</v>
       </c>
-      <c r="K3" s="9">
+      <c r="M3" s="9">
         <v>8</v>
       </c>
-      <c r="L3" s="9">
+      <c r="N3" s="9">
         <v>9</v>
       </c>
-      <c r="M3" s="9">
+      <c r="O3" s="9">
         <v>10</v>
       </c>
-      <c r="N3" s="9">
+      <c r="P3" s="9">
         <v>11</v>
       </c>
-      <c r="O3" s="9">
+      <c r="Q3" s="9">
         <v>12</v>
       </c>
-      <c r="P3" s="9">
+      <c r="R3" s="9">
         <v>13</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="S3" s="9">
         <v>14</v>
       </c>
-      <c r="R3" s="9">
+      <c r="T3" s="9">
         <v>15</v>
       </c>
-      <c r="S3" s="9">
+      <c r="U3" s="9">
         <v>16</v>
       </c>
-      <c r="T3" s="9">
+      <c r="V3" s="9">
         <v>17</v>
       </c>
-      <c r="U3" s="9">
+      <c r="W3" s="9">
         <v>18</v>
       </c>
-      <c r="V3" s="9">
+      <c r="X3" s="9">
         <v>19</v>
       </c>
-      <c r="W3" s="9">
+      <c r="Y3" s="9">
         <v>20</v>
       </c>
-      <c r="X3" s="9">
+      <c r="Z3" s="9">
         <v>21</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="AA3" s="9">
         <v>22</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="AB3" s="9">
         <v>23</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AC3" s="9">
         <v>24</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AD3" s="9">
         <v>25</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AE3" s="9">
         <v>26</v>
       </c>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" customHeight="1" spans="2:32">
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" customHeight="1" spans="2:34">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>61</v>
@@ -2841,16 +2908,16 @@
         <v>77</v>
       </c>
       <c r="AA4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="AE4" s="10" t="s">
         <v>80</v>
@@ -2858,443 +2925,485 @@
       <c r="AF4" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="2:32">
+      <c r="AG4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="2:34">
       <c r="B5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
+        <v>84</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="13">
+      <c r="G5" s="15">
         <v>2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="H5" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="13">
+      <c r="I5" s="15">
         <v>4</v>
       </c>
-      <c r="H5" s="13">
+      <c r="J5" s="15">
         <v>5</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>12</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="15">
+        <v>14</v>
+      </c>
+      <c r="T5" s="15">
+        <v>15</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" s="15">
+        <v>17</v>
+      </c>
+      <c r="W5" s="15">
+        <v>18</v>
+      </c>
+      <c r="X5" s="15">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>26</v>
+      </c>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="2:34">
+      <c r="B6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:34">
+      <c r="B7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="13">
-        <v>12</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>14</v>
-      </c>
-      <c r="R5" s="13">
-        <v>15</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T5" s="13">
-        <v>17</v>
-      </c>
-      <c r="U5" s="13">
-        <v>18</v>
-      </c>
-      <c r="V5" s="13">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" customHeight="1" spans="2:34">
+      <c r="B8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="13">
-        <v>20</v>
-      </c>
-      <c r="X5" s="13">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>26</v>
-      </c>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="2:32">
-      <c r="B6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH8" s="15"/>
+    </row>
+    <row r="9" customFormat="1" customHeight="1" spans="2:34">
+      <c r="B9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH9" s="20"/>
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="2:34">
+      <c r="B10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH10" s="20"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="2:34">
+      <c r="B11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="AB11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB6" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-    </row>
-    <row r="7" customHeight="1" spans="2:32">
-      <c r="B7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" customHeight="1" spans="2:32">
-      <c r="B8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF8" s="13"/>
-    </row>
-    <row r="9" customFormat="1" customHeight="1" spans="2:32">
-      <c r="B9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF9" s="15"/>
-    </row>
-    <row r="10" customFormat="1" customHeight="1" spans="2:32">
-      <c r="B10" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF10" s="15"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="2:32">
-      <c r="B11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z11" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-    </row>
-    <row r="12" customHeight="1" spans="2:32">
-      <c r="B12" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:34">
+      <c r="B12" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:32">
-      <c r="B13" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="AA12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:34">
+      <c r="B13" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -3309,255 +3418,281 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:32">
-      <c r="B14" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:34">
+      <c r="B14" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:34">
+      <c r="B15" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:34">
+      <c r="B16" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15" t="s">
+      <c r="D16" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:32">
-      <c r="B15" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:32">
-      <c r="B16" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:32">
-      <c r="B17" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="2:32">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="2:32">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-    </row>
-    <row r="23" customHeight="1" spans="5:26">
-      <c r="E23"/>
-      <c r="N23"/>
-      <c r="O23"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:34">
+      <c r="B17" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="2:34">
+      <c r="B18" s="18"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="2:34">
+      <c r="B19" s="18"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+    </row>
+    <row r="23" customHeight="1" spans="7:28">
+      <c r="G23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
@@ -3569,10 +3704,10 @@
       <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
-    </row>
-    <row r="24" customHeight="1" spans="14:26">
-      <c r="N24"/>
-      <c r="O24"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+    </row>
+    <row r="24" customHeight="1" spans="16:28">
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
@@ -3584,26 +3719,28 @@
       <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
-    </row>
-    <row r="28" customHeight="1" spans="12:15">
-      <c r="L28"/>
-      <c r="O28"/>
-    </row>
-    <row r="49" customHeight="1" spans="4:5">
-      <c r="D49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>131</v>
+      <c r="AA24"/>
+      <c r="AB24"/>
+    </row>
+    <row r="28" customHeight="1" spans="14:17">
+      <c r="N28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="49" customHeight="1" spans="6:7">
+      <c r="F49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E49" r:id="rId3" display="https://item.taobao.com/item.htm?spm=a1z0d.7625083.1998302264.6.691421aecv5VBN&amp;id=540661632069"/>
-    <hyperlink ref="AA1" r:id="rId4" display="WIKI"/>
-    <hyperlink ref="AD1" r:id="rId5" display="固件生成"/>
-    <hyperlink ref="AC1" r:id="rId6" display="API"/>
-    <hyperlink ref="AB1" r:id="rId7" display="引脚"/>
+    <hyperlink ref="G49" r:id="rId3" display="https://item.taobao.com/item.htm?spm=a1z0d.7625083.1998302264.6.691421aecv5VBN&amp;id=540661632069"/>
+    <hyperlink ref="AC1" r:id="rId4" display="WIKI"/>
+    <hyperlink ref="AF1" r:id="rId5" display="固件生成"/>
+    <hyperlink ref="AE1" r:id="rId6" display="API"/>
+    <hyperlink ref="AD1" r:id="rId7" display="引脚"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
